--- a/data/Iteracion2/Modelo Relacional.xlsx
+++ b/data/Iteracion2/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\Pictures\Sistrans\Sistrans-D01\data\Iteracion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63EEFCCF-AA64-4B81-B8D8-81832EBDE48D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D28F4EF6-AE21-4945-A29D-BB169FDE7378}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -354,9 +354,6 @@
     <t>superAndes</t>
   </si>
   <si>
-    <t>REVISAR CON JENI</t>
-  </si>
-  <si>
     <t>SUPERANDES</t>
   </si>
   <si>
@@ -379,6 +376,39 @@
   </si>
   <si>
     <t>FK_PROMOCION.id  , UA</t>
+  </si>
+  <si>
+    <t>NC, UA</t>
+  </si>
+  <si>
+    <t>NN, UA, DD</t>
+  </si>
+  <si>
+    <t>pagueLleveUNi</t>
+  </si>
+  <si>
+    <t>segUniDes</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>pagLleveCant</t>
+  </si>
+  <si>
+    <t>CARRITOCOMPRAS</t>
+  </si>
+  <si>
+    <t>Producto_carrito</t>
+  </si>
+  <si>
+    <t>carrito</t>
+  </si>
+  <si>
+    <t>PK, FK.CARRITOCOMPRAS.id, SA</t>
+  </si>
+  <si>
+    <t>FK_CLIENTE.correo, UA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -571,6 +601,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
@@ -602,20 +645,52 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,40 +698,20 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40% - Énfasis1" xfId="12" builtinId="31"/>
@@ -951,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,32 +1023,32 @@
     <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1092,28 +1147,31 @@
         <v>76</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="H6" s="21" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
       <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="O6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1146,6 +1204,12 @@
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1178,24 +1242,35 @@
       <c r="M8" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="L10" s="22" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="L10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="20"/>
+      <c r="O10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1228,6 +1303,15 @@
       <c r="M11" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1260,29 +1344,38 @@
       <c r="M12" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="O12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="J14" s="22" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -1324,6 +1417,18 @@
       <c r="O15" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="P15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -1345,43 +1450,57 @@
         <v>33</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="H18" s="21" t="s">
+      <c r="B18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="H18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>106</v>
@@ -1401,7 +1520,7 @@
         <v>86</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>107</v>
@@ -1411,39 +1530,39 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="I22" s="25" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="I22" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="34" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -1456,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>75</v>
@@ -1498,22 +1617,22 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="E26" s="18" t="s">
+      <c r="C26" s="27"/>
+      <c r="E26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="I26" s="19" t="s">
+      <c r="F26" s="27"/>
+      <c r="I26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
@@ -1580,17 +1699,17 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -1650,23 +1769,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="F34" s="30" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="F34" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -1711,14 +1825,14 @@
         <v>60</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="26"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
@@ -1737,9 +1851,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="H6:K6"/>
+  <mergeCells count="22">
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B10:F10"/>
@@ -1751,13 +1863,17 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J14:O14"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Iteracion2/Modelo Relacional.xlsx
+++ b/data/Iteracion2/Modelo Relacional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\Pictures\Sistrans\Sistrans-D01\data\Iteracion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D28F4EF6-AE21-4945-A29D-BB169FDE7378}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCAC9143-76DE-4C6E-B255-F52D2BF7B410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -78,9 +78,6 @@
     <t>fechaVencimiento</t>
   </si>
   <si>
-    <t>promocion</t>
-  </si>
-  <si>
     <t>categoria</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>PK, SA</t>
   </si>
   <si>
-    <t>PK, FK_CLIENTE.correoElectronico, UA</t>
-  </si>
-  <si>
     <t>PK, SA, CK</t>
   </si>
   <si>
@@ -351,57 +345,18 @@
     <t>FK_SUCURSAL.id, NN, UA, NC</t>
   </si>
   <si>
-    <t>superAndes</t>
-  </si>
-  <si>
-    <t>SUPERANDES</t>
-  </si>
-  <si>
-    <t>fechaInicioOperaciones</t>
-  </si>
-  <si>
-    <t>CLIENTE_SUPERANDES</t>
-  </si>
-  <si>
-    <t>nombreSA</t>
-  </si>
-  <si>
-    <t>FK_SUPERANDES.nombre, UA, NN</t>
-  </si>
-  <si>
-    <t>FK_SUPERANDES.nombre, NN, UA</t>
-  </si>
-  <si>
     <t>fechaAgregado</t>
   </si>
   <si>
-    <t>FK_PROMOCION.id  , UA</t>
-  </si>
-  <si>
     <t>NC, UA</t>
   </si>
   <si>
     <t>NN, UA, DD</t>
   </si>
   <si>
-    <t>pagueLleveUNi</t>
-  </si>
-  <si>
-    <t>segUniDes</t>
-  </si>
-  <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <t>pagLleveCant</t>
-  </si>
-  <si>
     <t>CARRITOCOMPRAS</t>
   </si>
   <si>
-    <t>Producto_carrito</t>
-  </si>
-  <si>
     <t>carrito</t>
   </si>
   <si>
@@ -409,6 +364,15 @@
   </si>
   <si>
     <t>FK_CLIENTE.correo, UA</t>
+  </si>
+  <si>
+    <t>PRODUCTO_CARRITO</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>NN, CK, UA</t>
   </si>
 </sst>
 </file>
@@ -512,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -596,15 +560,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -630,7 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
@@ -646,10 +601,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,48 +657,22 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1004,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S40"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +980,7 @@
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -1030,27 +993,26 @@
     <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1094,109 +1056,103 @@
         <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="20"/>
+      <c r="O6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>1</v>
@@ -1205,94 +1161,94 @@
         <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="L10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="O10" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="24" t="s">
+      <c r="F11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="L10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="O10" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>1</v>
@@ -1301,579 +1257,511 @@
         <v>3</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="J14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="O16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="E18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="H18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="E18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="H18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="I22" s="31" t="s">
+      <c r="C23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="J23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="I26" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="N28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="F34" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="E26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="I26" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="F34" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="H18:I18"/>
+  <mergeCells count="19">
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="I26:O26"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Iteracion2/Modelo Relacional.xlsx
+++ b/data/Iteracion2/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\Pictures\Sistrans\Sistrans-D01\data\Iteracion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCAC9143-76DE-4C6E-B255-F52D2BF7B410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D121B69-2588-44AC-B9EA-0D037EED0676}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -336,9 +336,6 @@
     <t>unidadesVendidas</t>
   </si>
   <si>
-    <t>FK_TIPO.categoria, NN, NC, UA</t>
-  </si>
-  <si>
     <t>idSucursal</t>
   </si>
   <si>
@@ -373,13 +370,28 @@
   </si>
   <si>
     <t>NN, CK, UA</t>
+  </si>
+  <si>
+    <t>TIPO_CATEGORIA</t>
+  </si>
+  <si>
+    <t>nombreCategoria</t>
+  </si>
+  <si>
+    <t>nombreTipo</t>
+  </si>
+  <si>
+    <t>PK, FK_CATEGORIA.nombre, UA</t>
+  </si>
+  <si>
+    <t>PK, FK_TIPO.nombre, UA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -585,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
@@ -600,45 +620,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,12 +644,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
@@ -673,6 +662,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q36"/>
+  <dimension ref="B2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,26 +1009,26 @@
     <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -1106,30 +1122,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="H6" s="25" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="H6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>27</v>
@@ -1161,13 +1179,16 @@
         <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>84</v>
       </c>
@@ -1181,7 +1202,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>94</v>
@@ -1198,37 +1219,40 @@
       <c r="M8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="O8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="H10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="L10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="L10" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="O10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>31</v>
@@ -1254,13 +1278,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>28</v>
@@ -1269,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>84</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>95</v>
@@ -1294,14 +1318,14 @@
       <c r="J12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>103</v>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -1310,15 +1334,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
       <c r="J14" s="13" t="s">
         <v>62</v>
       </c>
@@ -1328,7 +1352,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>86</v>
       </c>
@@ -1395,28 +1419,28 @@
         <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="34"/>
+      <c r="E18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="H18" s="25" t="s">
+      <c r="F18" s="37"/>
+      <c r="H18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -1432,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>74</v>
@@ -1452,46 +1476,46 @@
         <v>49</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="I22" s="26" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="I22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -1504,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>74</v>
@@ -1546,20 +1570,20 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="I26" s="39" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="I26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -1584,13 +1608,13 @@
         <v>69</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>70</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -1616,27 +1640,27 @@
         <v>99</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>76</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -1661,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>57</v>
@@ -1690,22 +1714,22 @@
         <v>59</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="F34" s="37" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="F34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="38"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -1743,25 +1767,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="O10:Q10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B30:J30"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Iteracion2/Modelo Relacional.xlsx
+++ b/data/Iteracion2/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\Pictures\Sistrans\Sistrans-D01\data\Iteracion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D121B69-2588-44AC-B9EA-0D037EED0676}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA519FB2-D6BF-41AC-BE1B-BEF8BCEFBFF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>PK, FK_TIPO.nombre, UA</t>
+  </si>
+  <si>
+    <t>codigoBarrasProducto</t>
   </si>
 </sst>
 </file>
@@ -622,30 +625,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -658,12 +637,21 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,9 +661,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,6 +671,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:R6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,23 +1013,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1123,19 +1126,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="H6" s="19" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="H6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -1230,27 +1233,27 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="L10" s="23" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="L10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="M10" s="21"/>
+      <c r="O10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1275,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
@@ -1335,14 +1338,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="J14" s="13" t="s">
         <v>62</v>
       </c>
@@ -1429,18 +1432,18 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="28"/>
+      <c r="E18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="H18" s="19" t="s">
+      <c r="F18" s="31"/>
+      <c r="H18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -1458,8 +1461,8 @@
       <c r="H19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>74</v>
+      <c r="I19" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1483,21 +1486,21 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="I22" s="16" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="I22" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
@@ -1570,20 +1573,20 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="I26" s="28" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="I26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -1650,17 +1653,17 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -1721,15 +1724,15 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="F34" s="26" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="F34" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -1767,6 +1770,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B30:J30"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="H6:K6"/>
@@ -1780,12 +1789,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Iteracion2/Modelo Relacional.xlsx
+++ b/data/Iteracion2/Modelo Relacional.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante\Pictures\Sistrans\Sistrans-D01\data\Iteracion2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Universidad\4toSemestre\Sistrans\Iteraciones\Iteración2\Proyecto eclipse\Sistrans-D01\data\Iteracion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA519FB2-D6BF-41AC-BE1B-BEF8BCEFBFF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -388,13 +387,19 @@
   </si>
   <si>
     <t>codigoBarrasProducto</t>
+  </si>
+  <si>
+    <t>estaEnPromocion</t>
+  </si>
+  <si>
+    <t>UA, NN, CK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,14 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -625,6 +622,57 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -640,58 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -985,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,23 +1010,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1077,6 +1075,9 @@
       <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1124,21 +1125,24 @@
       <c r="P4" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="Q4" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1233,27 +1237,27 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="H10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="L10" s="21" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="L10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="O10" s="21" t="s">
+      <c r="M10" s="19"/>
+      <c r="O10" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1292,8 +1296,8 @@
       <c r="P11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>1</v>
+      <c r="Q11" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -1338,14 +1342,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>62</v>
       </c>
@@ -1432,18 +1436,18 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="23"/>
+      <c r="E18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="H18" s="24" t="s">
+      <c r="F18" s="26"/>
+      <c r="H18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -1486,21 +1490,21 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="I22" s="32" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="I22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
@@ -1573,20 +1577,20 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="I26" s="22" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="I26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -1653,17 +1657,17 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -1724,15 +1728,15 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="F34" s="18" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="F34" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -1770,13 +1774,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:Q2"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B2:P2"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="O10:Q10"/>
